--- a/resources/chunks/10000001.xlsx
+++ b/resources/chunks/10000001.xlsx
@@ -51,7 +51,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="14">
     <dxf>
       <font>
         <condense val="0"/>
@@ -61,46 +61,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -498,12 +458,15 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1"/>
+  <cols>
+    <col min="1" max="16" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" customHeight="1">
+    <row r="1" spans="1:16" ht="54" customHeight="1">
       <c r="A1">
         <v>0</v>
       </c>
@@ -553,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27" customHeight="1">
+    <row r="2" spans="1:16" ht="54" customHeight="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -603,7 +566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27" customHeight="1">
+    <row r="3" spans="1:16" ht="54" customHeight="1">
       <c r="A3">
         <v>0</v>
       </c>
@@ -653,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27" customHeight="1">
+    <row r="4" spans="1:16" ht="54" customHeight="1">
       <c r="A4">
         <v>0</v>
       </c>
@@ -703,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1">
+    <row r="5" spans="1:16" ht="54" customHeight="1">
       <c r="A5">
         <v>0</v>
       </c>
@@ -753,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="27" customHeight="1">
+    <row r="6" spans="1:16" ht="54" customHeight="1">
       <c r="A6">
         <v>3</v>
       </c>
@@ -803,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="27" customHeight="1">
+    <row r="7" spans="1:16" ht="54" customHeight="1">
       <c r="A7">
         <v>3</v>
       </c>
@@ -853,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27" customHeight="1">
+    <row r="8" spans="1:16" ht="54" customHeight="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -903,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27" customHeight="1">
+    <row r="9" spans="1:16" ht="54" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -953,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="27" customHeight="1">
+    <row r="10" spans="1:16" ht="54" customHeight="1">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1003,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="27" customHeight="1">
+    <row r="11" spans="1:16" ht="54" customHeight="1">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1053,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27" customHeight="1">
+    <row r="12" spans="1:16" ht="54" customHeight="1">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1105,54 +1068,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/chunks/10000001.xlsx
+++ b/resources/chunks/10000001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3870" windowWidth="13380" windowHeight="7290" tabRatio="417"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13935" windowHeight="7395" tabRatio="417"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="6">
   <si>
     <t>ground</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>door</t>
+  </si>
+  <si>
+    <t>treeLi</t>
+  </si>
+  <si>
+    <t>treeEl</t>
   </si>
 </sst>
 </file>
@@ -68,7 +74,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="144">
     <dxf>
       <font>
         <condense val="0"/>
@@ -91,13 +97,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -106,6 +105,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -131,13 +144,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -164,6 +170,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -171,35 +191,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -215,8 +214,1008 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF128017"/>
+      <color rgb="FF21C94D"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -508,7 +1507,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M4" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1"/>
@@ -524,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -542,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -554,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="54" customHeight="1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -580,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -618,7 +1617,7 @@
     </row>
     <row r="3" spans="1:16" ht="54" customHeight="1">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -627,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -695,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>0</v>
@@ -704,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="54" customHeight="1">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -727,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -742,10 +1741,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
@@ -754,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P5" t="s">
         <v>1</v>
@@ -792,19 +1791,19 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>1</v>
@@ -851,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" t="s">
         <v>1</v>
@@ -877,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -898,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" t="s">
         <v>1</v>
@@ -927,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -948,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
         <v>1</v>
@@ -974,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -983,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
@@ -995,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" t="s">
         <v>1</v>
@@ -1030,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -1045,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" t="s">
         <v>1</v>
@@ -1080,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
@@ -1092,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
@@ -1118,19 +2117,419 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="road">
+    <cfRule type="containsText" dxfId="143" priority="122" operator="containsText" text="road">
       <formula>NOT(ISERROR(SEARCH("road",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="water">
+    <cfRule type="containsText" dxfId="142" priority="123" operator="containsText" text="water">
       <formula>NOT(ISERROR(SEARCH("water",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="ground">
+    <cfRule type="containsText" dxfId="141" priority="124" operator="containsText" text="ground">
       <formula>NOT(ISERROR(SEARCH("ground",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="121" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="120" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="119" operator="equal">
+      <formula>"treeEl"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="door">
+    <cfRule type="containsText" dxfId="137" priority="116" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="117" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="118" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:P12">
+    <cfRule type="containsText" dxfId="134" priority="115" operator="containsText" text="door">
       <formula>NOT(ISERROR(SEARCH("door",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="133" priority="109" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="110" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="111" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="112" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="113" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="114" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="127" priority="103" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="104" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="105" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="106" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="107" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="108" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="121" priority="97" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="98" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="99" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="100" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="101" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",D8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="102" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="115" priority="91" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="92" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="93" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="94" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="95" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="96" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="109" priority="85" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="86" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="87" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="88" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="89" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="90" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="103" priority="79" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="80" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="81" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="82" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="83" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="84" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="97" priority="73" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="74" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="75" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",I6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="76" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",I6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="77" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",I6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="78" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",I6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="91" priority="67" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="68" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="69" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",A4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="70" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",A4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="71" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",A4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="72" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",A4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="85" priority="61" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="62" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="63" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="64" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="66" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="cellIs" dxfId="79" priority="55" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="56" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="57" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="58" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="60" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="73" priority="49" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="50" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="51" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="52" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="53" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="54" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="67" priority="43" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="44" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="45" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="46" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="47" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="48" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="61" priority="37" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="38" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="39" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="40" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="41" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="42" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="55" priority="31" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="33" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",A5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="34" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",A5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="35" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",A5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="36" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",A5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1">
+    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="27" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",M1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="28" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",M1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="29" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",M1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="30" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",M1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="21" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="22" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="16" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="18" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",J6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>"treeEl"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="door">
+      <formula>NOT(ISERROR(SEARCH("door",I5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",I5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",I5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",I5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
